--- a/01-Documents/Rapports/EvaluationXamarinDamloup.xlsx
+++ b/01-Documents/Rapports/EvaluationXamarinDamloup.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damis\Desktop\developpement\01-Github\02-Autres\ETML-Cours\02-Documents\01-Rapports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damis\Desktop\developpement\01-Github\02-Autres\ETML\ETML-Cours\01-Documents\Rapports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402CE5C-C1BD-4716-B16A-EDFF60170BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D280D0-2E5C-4CB8-B36F-1E6F09022E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -148,9 +153,6 @@
   </si>
   <si>
     <t>Lien entre 2 activités</t>
-  </si>
-  <si>
-    <t>Une activité de base est créée. Créer une deuxième activité =&gt; Clique droit =&gt; Nouvel élément =&gt; Activité : Fichier .cs. Dans les layouts Clique droit =&gt; Nouvel élément =&gt; Fichier xml : Fichier .xml. Comment les associer, afficher l'interface. Nomoclature. Appeler la deuxième activité : Intent nextActivity = new Intent(this, typeof(secondActivity));</t>
   </si>
   <si>
     <t>LisView</t>
@@ -356,6 +358,98 @@
         <scheme val="minor"/>
       </rPr>
       <t>Dans les paramètres de la méthode, "Sender" =&gt; Objet qui appelle cette méthode et "e" =&gt; informations sur l'événement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Une activité de base est créée. Créer une deuxième activité =&gt; Clique droit =&gt; Nouvel élément =&gt; Activité : Fichier .cs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dans les layouts Clique droit =&gt; Nouvel élément =&gt; Fichier xml : Fichier .xml.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment les associer,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afficher l'interface. Nomoclature.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Appeler la deuxième activité : Intent nextActivity = new Intent(this, typeof(secondActivity));</t>
     </r>
   </si>
 </sst>
@@ -493,67 +587,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -610,6 +644,36 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -624,21 +688,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAE6430-D31A-4019-AABA-DE6E64B1A71D}" name="Tableau1" displayName="Tableau1" ref="A1:J25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAE6430-D31A-4019-AABA-DE6E64B1A71D}" name="Tableau1" displayName="Tableau1" ref="A1:J25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J25" xr:uid="{B9DE9194-2C36-4362-88D9-E298ADDB3769}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{87BD80B0-6C3C-4B66-8D6C-E9A1FDECEABA}" name="Thème à évaluer" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4E41E510-AB0A-4A9A-89BB-93002AA8BB53}" name="Points" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{702FFC14-E32B-400B-9D86-A6F2A4539502}" name="Poids" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{FE04450B-4D3B-4FFB-A69F-9E2CAD386D23}" name="Eval" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{87BD80B0-6C3C-4B66-8D6C-E9A1FDECEABA}" name="Thème à évaluer" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4E41E510-AB0A-4A9A-89BB-93002AA8BB53}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{702FFC14-E32B-400B-9D86-A6F2A4539502}" name="Poids" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FE04450B-4D3B-4FFB-A69F-9E2CAD386D23}" name="Eval" dataDxfId="6">
       <calculatedColumnFormula>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E75898E4-BA48-4F7B-B832-59249243082A}" name="Remarque" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{A56AE594-1BD5-44BF-8790-56128169BAE9}" name="A expliquer dans le document de rapport" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{52C30B02-FE73-4177-9282-8B3537B09B19}" name="Etapes" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{534FE532-DD49-4FE7-8389-8378F5D60E06}" name="Etapes2" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{D3F1817F-84C7-47D6-896E-5C15A5A2AE36}" name="Etapes3" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{246881A6-18D4-4BB1-95DF-E9F3F0D4FA4F}" name="Fait" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E75898E4-BA48-4F7B-B832-59249243082A}" name="Remarque" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A56AE594-1BD5-44BF-8790-56128169BAE9}" name="A expliquer dans le document de rapport" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{52C30B02-FE73-4177-9282-8B3537B09B19}" name="Etapes" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{534FE532-DD49-4FE7-8389-8378F5D60E06}" name="Etapes2" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{D3F1817F-84C7-47D6-896E-5C15A5A2AE36}" name="Etapes3" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{246881A6-18D4-4BB1-95DF-E9F3F0D4FA4F}" name="Fait" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -943,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E76EC-EDDE-4987-90A7-4B9C85CB51F4}">
   <dimension ref="A1:J595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1074,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,7 +1096,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1054,7 +1118,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1076,7 +1140,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1098,7 +1162,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1120,7 +1184,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1142,7 +1206,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1170,7 +1234,7 @@
         <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1229,7 +1293,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B10:B22" si="0">IF(J16="X",3,0)</f>
+        <f t="shared" ref="B16:B22" si="0">IF(J16="X",3,0)</f>
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -1240,11 +1304,11 @@
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1263,11 +1327,11 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3"/>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1286,11 +1350,11 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1299,72 +1363,72 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3"/>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3"/>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3"/>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -1380,21 +1444,21 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="7">
         <f>SUM(B2:B22)</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
         <f>SUM(D2:D22)</f>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -1405,7 +1469,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11">
         <f>COUNTA(B2:B22)*3</f>
@@ -1425,13 +1489,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7">
         <f>D23/D24*5+1</f>
-        <v>3.7777777777777777</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
@@ -3158,13 +3222,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J22">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",J2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01-Documents/Rapports/EvaluationXamarinDamloup.xlsx
+++ b/01-Documents/Rapports/EvaluationXamarinDamloup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damis\Desktop\developpement\01-Github\02-Autres\ETML\ETML-Cours\01-Documents\Rapports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\TG\ETML-Cours\01-Documents\Rapports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D280D0-2E5C-4CB8-B36F-1E6F09022E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DEBBB-B585-4826-92D2-35269EC44912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
   </bookViews>
@@ -26,9 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1007,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E76EC-EDDE-4987-90A7-4B9C85CB51F4}">
   <dimension ref="A1:J595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1057,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
+        <f t="shared" ref="B2:B4" si="0">IF(J2="X",3,0)</f>
         <v>3</v>
       </c>
       <c r="C2" s="1">
@@ -1082,6 +1080,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C3" s="1">
@@ -1104,6 +1103,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
+        <f>IF(J4="X",3,0)</f>
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -1126,6 +1126,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" ref="B5:B8" si="1">IF(J5="X",3,0)</f>
         <v>3</v>
       </c>
       <c r="C5" s="1">
@@ -1148,6 +1149,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C6" s="1">
@@ -1170,6 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -1192,6 +1195,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C8" s="1">
@@ -1293,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B16:B22" si="0">IF(J16="X",3,0)</f>
+        <f t="shared" ref="B16:B22" si="2">IF(J16="X",3,0)</f>
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -1316,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C17" s="1">
@@ -1339,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C18" s="1">
@@ -1362,7 +1366,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -1385,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C20" s="1">
@@ -1408,7 +1412,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -1431,7 +1435,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22" s="1">

--- a/01-Documents/Rapports/EvaluationXamarinDamloup.xlsx
+++ b/01-Documents/Rapports/EvaluationXamarinDamloup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\TG\ETML-Cours\01-Documents\Rapports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\ETML-Cours\01-Documents\Rapports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DEBBB-B585-4826-92D2-35269EC44912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F5BDDE-EF85-405D-9AD2-1B77544B3DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B35A61F4-9F7E-4C33-9EC8-BD86859C9C44}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Thème à évaluer</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <r>
@@ -1004,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E76EC-EDDE-4987-90A7-4B9C85CB51F4}">
   <dimension ref="A1:J595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B4" si="0">IF(J2="X",3,0)</f>
+        <f t="shared" ref="B2:B3" si="0">IF(J2="X",3,0)</f>
         <v>3</v>
       </c>
       <c r="C2" s="1">
@@ -1308,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3"/>
       <c r="J16" s="1" t="s">
@@ -1331,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3"/>
       <c r="J17" s="1" t="s">
@@ -1354,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="3"/>
       <c r="J18" s="1" t="s">
@@ -1377,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3"/>
       <c r="J19" s="1" t="s">
@@ -1436,19 +1433,19 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
         <f>Tableau1[[#This Row],[Points]]*Tableau1[[#This Row],[Poids]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,12 +1454,12 @@
       </c>
       <c r="B23" s="7">
         <f>SUM(B2:B22)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
         <f>SUM(D2:D22)</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -1499,7 +1496,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7">
         <f>D23/D24*5+1</f>
-        <v>5.4444444444444446</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
